--- a/Шаблоны/Шаблон_для_акта.xlsx
+++ b/Шаблоны/Шаблон_для_акта.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\pythonProject1\EXCEL\Отчетные документы\act_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\DIT_acts\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -657,7 +657,10 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.39370078740157499" bottom="0.39370078740157499" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.59055118110236227" bottom="0.78740157480314965" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="2" orientation="landscape" cellComments="atEnd" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,обычный"&amp;9&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>